--- a/extras/example_form/Sample Form - Display Roster in Table.xlsx
+++ b/extras/example_form/Sample Form - Display Roster in Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mitow\Documents\GitHub\table-list\extras\example_form\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E581B24C-8824-4292-802C-D2F0585F99D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88C211D2-BA67-452E-867A-EE079C98208A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="429">
   <si>
     <t>type</t>
   </si>
@@ -4743,9 +4743,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1002"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F36" sqref="F36"/>
+      <selection pane="bottomLeft" activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.6"/>
@@ -6146,9 +6146,7 @@
       <c r="F40" s="14"/>
       <c r="G40" s="14"/>
       <c r="H40" s="17"/>
-      <c r="I40" s="14" t="s">
-        <v>79</v>
-      </c>
+      <c r="I40" s="14"/>
       <c r="J40" s="14"/>
       <c r="K40" s="14"/>
       <c r="L40" s="14"/>
@@ -33519,7 +33517,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
@@ -61684,7 +61682,7 @@
       </c>
       <c r="C2" s="11" t="str">
         <f ca="1">TEXT(YEAR(NOW())-2000, "00") &amp; TEXT(MONTH(NOW()), "00") &amp; TEXT(DAY(NOW()), "00") &amp; TEXT(HOUR(NOW()), "00") &amp; TEXT(MINUTE(NOW()), "00")</f>
-        <v>2005081251</v>
+        <v>2005082031</v>
       </c>
       <c r="D2" s="16"/>
       <c r="E2" s="18"/>
@@ -61951,7 +61949,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="202.8" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:30" ht="187.2" x14ac:dyDescent="0.6">
       <c r="A6" s="23" t="s">
         <v>67</v>
       </c>
@@ -62413,7 +62411,7 @@
       <c r="AC16" s="26"/>
       <c r="AD16" s="26"/>
     </row>
-    <row r="17" spans="1:30" ht="46.8" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:30" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A17" s="26" t="s">
         <v>135</v>
       </c>
@@ -68959,7 +68957,7 @@
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
     </row>
-    <row r="6" spans="1:26" ht="312" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:26" ht="296.39999999999998" x14ac:dyDescent="0.6">
       <c r="A6" s="23" t="s">
         <v>408</v>
       </c>

--- a/extras/example_form/Sample Form - Display Roster in Table.xlsx
+++ b/extras/example_form/Sample Form - Display Roster in Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mitow\Documents\GitHub\table-list\extras\example_form\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88C211D2-BA67-452E-867A-EE079C98208A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89BD28A5-BBD2-42A5-B400-ED02AC469DD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,6 +47,7 @@
             <sz val="12"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>Use the table-list field-plugin to display a table of household members showing their names and ages</t>
         </r>
@@ -57,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="440">
   <si>
     <t>type</t>
   </si>
@@ -229,6 +230,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 For more help, see the following help topic: </t>
@@ -239,6 +241,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>How do I design my form?</t>
     </r>
@@ -289,6 +292,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>type</t>
     </r>
@@ -297,6 +301,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> column -- so, if you are using Excel and your row is </t>
     </r>
@@ -306,6 +311,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>not</t>
     </r>
@@ -314,6 +320,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> automatically highlighted, re-check that you have entered the type properly. See below for an exhaustive list of brief examples.</t>
     </r>
@@ -328,6 +335,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>age</t>
     </r>
@@ -342,6 +350,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Alt+Enter </t>
     </r>
@@ -350,6 +359,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">on Windows or </t>
     </r>
@@ -359,6 +369,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Control+Option+Enter </t>
     </r>
@@ -367,6 +378,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>on a Mac.</t>
     </r>
@@ -381,6 +393,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>label:languagename</t>
     </r>
@@ -389,6 +402,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> column (e.g., </t>
     </r>
@@ -398,6 +412,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>label:tamil</t>
     </r>
@@ -406,6 +421,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>) may be added in order to provide labels in an alternative language.</t>
     </r>
@@ -420,6 +436,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Alt+Enter </t>
     </r>
@@ -428,6 +445,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">on Windows or </t>
     </r>
@@ -437,6 +455,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Control+Option+Enter </t>
     </r>
@@ -445,6 +464,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>on a Mac.</t>
     </r>
@@ -468,6 +488,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>hint:languagename</t>
     </r>
@@ -476,6 +497,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> column (e.g., </t>
     </r>
@@ -485,6 +507,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>hint:tamil</t>
     </r>
@@ -493,6 +516,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>) may be added in order to provide hints in an alternative language.</t>
     </r>
@@ -511,6 +535,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">calculation </t>
     </r>
@@ -519,6 +544,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">column. See the following help topic for more details: </t>
     </r>
@@ -528,6 +554,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>How can I provide default entries or selections for users filling out my form?</t>
     </r>
@@ -536,6 +563,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -555,6 +583,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">, you can specify the appearance style in this column (e.g., </t>
     </r>
@@ -564,6 +593,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>quick</t>
     </r>
@@ -572,6 +602,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> or </t>
     </r>
@@ -581,6 +612,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>minimal</t>
     </r>
@@ -589,6 +621,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> for </t>
     </r>
@@ -598,6 +631,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>select_one</t>
     </r>
@@ -606,6 +640,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> fields). See the individual examples below.</t>
     </r>
@@ -620,6 +655,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">constraint builder </t>
     </r>
@@ -628,6 +664,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">to build new constraint expressions. </t>
     </r>
@@ -636,6 +673,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">(Also see the expression quick-reference following the examples below.) Example: </t>
     </r>
@@ -645,6 +683,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>. &lt; 130</t>
     </r>
@@ -662,6 +701,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>constraint message:languagename</t>
     </r>
@@ -670,6 +710,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> column (e.g., </t>
     </r>
@@ -679,6 +720,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>constraint message:tamil</t>
     </r>
@@ -687,6 +729,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>) may be added in order to provide constraint messages in an alternative language.</t>
     </r>
@@ -701,6 +744,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">relevance builder </t>
     </r>
@@ -709,6 +753,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">to build new relevance expressions. (Also see the expression quick-reference following the examples below.) Example: </t>
     </r>
@@ -718,6 +763,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>${age} &lt; 18</t>
     </r>
@@ -738,6 +784,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>yes</t>
     </r>
@@ -746,6 +793,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> into this column to temporarily disable a field. (Rarely used.)</t>
     </r>
@@ -760,6 +808,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>yes</t>
     </r>
@@ -768,6 +817,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> into this column to require that users enter or select a value before continuing.</t>
     </r>
@@ -785,6 +835,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>required message:languagename</t>
     </r>
@@ -793,6 +844,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> column (e.g., </t>
     </r>
@@ -802,6 +854,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>required message:tamil</t>
     </r>
@@ -810,6 +863,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>) may be added in order to provide required messages in an alternative language.</t>
     </r>
@@ -824,6 +878,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>yes</t>
     </r>
@@ -832,6 +887,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> into this column to make it read-only (a user can see the field, but cannot enter or select a value). (Rarely used, because </t>
     </r>
@@ -841,6 +897,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>note</t>
     </r>
@@ -849,6 +906,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> fields, which are by nature read-only, are automatically read-only regardless of what is specified here.)</t>
     </r>
@@ -863,6 +921,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>calculate</t>
     </r>
@@ -871,6 +930,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> field, or the expression to use for calculating the default entry or selection for a visible form field. Use the </t>
     </r>
@@ -880,6 +940,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">calculation builder </t>
     </r>
@@ -888,6 +949,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>to build new calculation expressions. (Also see the expression quick-reference following the examples below.)</t>
     </r>
@@ -908,6 +970,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>begin repeat</t>
     </r>
@@ -916,6 +979,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> row, this column can specify the number of times to repeat the group of questions. (Can be a fixed count like </t>
     </r>
@@ -925,6 +989,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>3</t>
     </r>
@@ -933,6 +998,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> or a reference to an earlier field like </t>
     </r>
@@ -942,6 +1008,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>${numhh_members}</t>
     </r>
@@ -950,6 +1017,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>.)</t>
     </r>
@@ -967,6 +1035,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>paddy.png</t>
     </r>
@@ -981,6 +1050,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>explanation.3gpp</t>
     </r>
@@ -995,6 +1065,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>demonstration.mp4</t>
     </r>
@@ -1009,6 +1080,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>media:image:languagename</t>
     </r>
@@ -1017,6 +1089,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> column (e.g., </t>
     </r>
@@ -1026,6 +1099,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>media:image:tamil</t>
     </r>
@@ -1034,6 +1108,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>) may be added in order to provide images for an alternative language.</t>
     </r>
@@ -1051,6 +1126,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>media:audio:languagename</t>
     </r>
@@ -1059,6 +1135,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> column (e.g., </t>
     </r>
@@ -1068,6 +1145,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>media:audio:tamil</t>
     </r>
@@ -1076,6 +1154,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>) may be added in order to provide audio clips for an alternative language.</t>
     </r>
@@ -1090,6 +1169,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>media:video:languagename</t>
     </r>
@@ -1098,6 +1178,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> column (e.g., </t>
     </r>
@@ -1107,6 +1188,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>media:video:tamil</t>
     </r>
@@ -1115,6 +1197,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>) may be added in order to provide video clips for an alternative language.</t>
     </r>
@@ -1129,6 +1212,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>How can I filter the list of multiple-choice options presented to users?</t>
     </r>
@@ -1137,6 +1221,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1145,6 +1230,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Example: </t>
     </r>
@@ -1154,6 +1240,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>filter=${survey_region}</t>
     </r>
@@ -1180,6 +1267,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>|___|___|</t>
     </r>
@@ -1188,6 +1276,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> if you are looking for two letters or numbers; or, for a checkbox, you might put a hollow square like </t>
     </r>
@@ -1197,6 +1286,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>□</t>
     </r>
@@ -1205,6 +1295,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> (this is a special HTML character: enter "</t>
     </r>
@@ -1214,6 +1305,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>&amp;#9633;</t>
     </r>
@@ -1222,6 +1314,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">", without quotes, into this column); finally, for a radio button, you might simply enter a capital </t>
     </r>
@@ -1231,6 +1324,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>O</t>
     </r>
@@ -1239,6 +1333,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>.</t>
     </r>
@@ -1253,6 +1348,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>yes</t>
     </r>
@@ -1261,6 +1357,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> into this column to indicate that a field in an encrypted form should be left unencrypted so that it can be published to one or more datasets. Use only for non-sensitive fields that can be left unencrypted without compromising data security. (This field is ignored for unencrypted forms.)</t>
     </r>
@@ -1275,6 +1372,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Enforce minimum times for fields</t>
     </r>
@@ -1283,6 +1381,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> option within Collect's </t>
     </r>
@@ -1292,6 +1391,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Admin Settings</t>
     </r>
@@ -1300,6 +1400,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">); alternatively, you can track violations with the following field types: "speed violations count", "speed violations list", and "speed violations audit" (see examples for these field types below). </t>
     </r>
@@ -1316,6 +1417,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> (scroll right for appearance styles)</t>
     </r>
@@ -2179,6 +2281,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>How do I dynamically load multiple-choice options from pre-loaded data?</t>
     </r>
@@ -2187,6 +2290,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>).</t>
     </r>
@@ -2204,6 +2308,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>list_name</t>
     </r>
@@ -2212,6 +2317,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">. Example: </t>
     </r>
@@ -2221,6 +2327,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>yesno</t>
     </r>
@@ -2235,6 +2342,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">1
 </t>
@@ -2244,6 +2352,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>If dynamically loading from a pre-loaded .csv file, this should instead be the .csv column name from which to load option values.</t>
     </r>
@@ -2258,6 +2367,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Yes
 </t>
@@ -2267,6 +2377,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>If dynamically loading from a pre-loaded .csv file, this should instead be the .csv column name -- or comma-separated list of column names -- from which to load option labels for the default language.</t>
     </r>
@@ -2281,6 +2392,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>label:languagename</t>
     </r>
@@ -2289,6 +2401,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> column (e.g., </t>
     </r>
@@ -2298,6 +2411,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>label:tamil</t>
     </r>
@@ -2306,6 +2420,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>) may be added in order to provide labels in an alternative language.</t>
     </r>
@@ -2320,6 +2435,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">paddy.png
 </t>
@@ -2329,6 +2445,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>If dynamically loading from a pre-loaded .csv file, this should instead be the .csv column name from which to load image filenames.</t>
     </r>
@@ -2343,6 +2460,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>label:languagename</t>
     </r>
@@ -2351,6 +2469,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> column (e.g., </t>
     </r>
@@ -2360,6 +2479,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>label:tamil</t>
     </r>
@@ -2368,6 +2488,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>) may be added in order to provide images in an alternative language.</t>
     </r>
@@ -2382,6 +2503,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>choice_filter</t>
     </r>
@@ -2390,6 +2512,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> column of the </t>
     </r>
@@ -2399,6 +2522,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>survey</t>
     </r>
@@ -2407,6 +2531,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> worksheet. For example, you might have </t>
     </r>
@@ -2416,6 +2541,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>filter</t>
     </r>
@@ -2424,6 +2550,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> values like </t>
     </r>
@@ -2433,6 +2560,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>LAC</t>
     </r>
@@ -2441,6 +2569,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> and a </t>
     </r>
@@ -2450,6 +2579,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>choice_filter</t>
     </r>
@@ -2458,6 +2588,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> like </t>
     </r>
@@ -2467,6 +2598,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>filter=${survey_region}</t>
     </r>
@@ -2475,6 +2607,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">. For more details, see the following help topic: </t>
     </r>
@@ -2484,6 +2617,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>How can I filter the list of multiple-choice options presented to users?</t>
     </r>
@@ -2504,6 +2638,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">TEST - </t>
     </r>
@@ -2512,6 +2647,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">(as in "TEST - Household listing survey"), it will not appear by default to users (see the following help topic: </t>
     </r>
@@ -2521,6 +2657,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>How can I prevent forms from appearing until after I am finished testing them?</t>
     </r>
@@ -2529,6 +2666,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>).</t>
     </r>
@@ -2543,6 +2681,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>hhlisting_round1</t>
     </r>
@@ -2560,6 +2699,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>How do I encrypt my data?</t>
     </r>
@@ -2574,6 +2714,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>How do I encrypt my data?</t>
     </r>
@@ -2588,6 +2729,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">label:french </t>
     </r>
@@ -2596,6 +2738,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">column is clearly in French, but the </t>
     </r>
@@ -2605,6 +2748,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>label</t>
     </r>
@@ -2613,6 +2757,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> column, which will display by default, is in an unknown language. Put the name of that default language here. See the following help topic for details: </t>
     </r>
@@ -2622,6 +2767,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>How do I translate my form into multiple languages?</t>
     </r>
@@ -2671,12 +2817,45 @@
   <si>
     <t>phone_details</t>
   </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>1|Dignissim|Natural</t>
+  </si>
+  <si>
+    <t>2|Steelio|Natural</t>
+  </si>
+  <si>
+    <t>3|Parallel|Green</t>
+  </si>
+  <si>
+    <t>select_one product</t>
+  </si>
+  <si>
+    <t>hhmember_watch</t>
+  </si>
+  <si>
+    <t>Which watch does he or she like?</t>
+  </si>
+  <si>
+    <t>custom-table-list(delimiter='|',headers='ID,Description,Colour')</t>
+  </si>
+  <si>
+    <t>This demonstrates a list which has labels dynamically created based on the repeat group.</t>
+  </si>
+  <si>
+    <t>This demonstrates a delimited static choice list.</t>
+  </si>
+  <si>
+    <t>This demonstrates pulling data from an external CSV file and combining it with the search function.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2687,23 +2866,27 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="12"/>
       <color rgb="FF0000D4"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -2711,33 +2894,39 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF333333"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF333333"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -2745,12 +2934,20 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <i/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -2965,7 +3162,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3093,6 +3290,11 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4741,11 +4943,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z1002"/>
+  <dimension ref="A1:Z1003"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I40" sqref="I40"/>
+      <selection pane="bottomLeft" activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.6"/>
@@ -5997,16 +6199,16 @@
       <c r="C36" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="D36" s="14"/>
+      <c r="D36" s="56" t="s">
+        <v>437</v>
+      </c>
       <c r="E36" s="14"/>
       <c r="F36" s="14" t="s">
         <v>417</v>
       </c>
       <c r="G36" s="14"/>
       <c r="H36" s="17"/>
-      <c r="I36" s="14" t="s">
-        <v>79</v>
-      </c>
+      <c r="I36" s="14"/>
       <c r="J36" s="14"/>
       <c r="K36" s="14" t="s">
         <v>63</v>
@@ -6030,19 +6232,21 @@
       <c r="Z36" s="13"/>
     </row>
     <row r="37" spans="1:26" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A37" s="14" t="s">
-        <v>423</v>
+      <c r="A37" s="56" t="s">
+        <v>433</v>
       </c>
-      <c r="B37" s="14" t="s">
-        <v>424</v>
+      <c r="B37" s="56" t="s">
+        <v>434</v>
       </c>
-      <c r="C37" s="22" t="s">
-        <v>425</v>
+      <c r="C37" s="57" t="s">
+        <v>435</v>
       </c>
-      <c r="D37" s="14"/>
+      <c r="D37" s="56" t="s">
+        <v>438</v>
+      </c>
       <c r="E37" s="14"/>
-      <c r="F37" s="14" t="s">
-        <v>426</v>
+      <c r="F37" s="56" t="s">
+        <v>436</v>
       </c>
       <c r="G37" s="14"/>
       <c r="H37" s="17"/>
@@ -6067,26 +6271,26 @@
     </row>
     <row r="38" spans="1:26" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A38" s="14" t="s">
-        <v>105</v>
+        <v>423</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>181</v>
+        <v>424</v>
       </c>
-      <c r="C38" s="15" t="s">
-        <v>182</v>
+      <c r="C38" s="22" t="s">
+        <v>425</v>
       </c>
-      <c r="D38" s="14"/>
+      <c r="D38" s="56" t="s">
+        <v>439</v>
+      </c>
       <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
+      <c r="F38" s="14" t="s">
+        <v>426</v>
+      </c>
       <c r="G38" s="14"/>
       <c r="H38" s="17"/>
-      <c r="I38" s="14" t="s">
-        <v>79</v>
-      </c>
+      <c r="I38" s="14"/>
       <c r="J38" s="14"/>
-      <c r="K38" s="14" t="s">
-        <v>63</v>
-      </c>
+      <c r="K38" s="14"/>
       <c r="L38" s="14"/>
       <c r="M38" s="14"/>
       <c r="N38" s="14"/>
@@ -6104,17 +6308,27 @@
       <c r="Z38" s="13"/>
     </row>
     <row r="39" spans="1:26" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A39" s="14"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="15"/>
+      <c r="A39" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>182</v>
+      </c>
       <c r="D39" s="14"/>
       <c r="E39" s="14"/>
       <c r="F39" s="14"/>
       <c r="G39" s="14"/>
       <c r="H39" s="17"/>
-      <c r="I39" s="14"/>
+      <c r="I39" s="14" t="s">
+        <v>79</v>
+      </c>
       <c r="J39" s="14"/>
-      <c r="K39" s="14"/>
+      <c r="K39" s="14" t="s">
+        <v>63</v>
+      </c>
       <c r="L39" s="14"/>
       <c r="M39" s="14"/>
       <c r="N39" s="14"/>
@@ -6131,16 +6345,10 @@
       <c r="Y39" s="13"/>
       <c r="Z39" s="13"/>
     </row>
-    <row r="40" spans="1:26" ht="31.2" x14ac:dyDescent="0.6">
-      <c r="A40" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B40" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="C40" s="15" t="s">
-        <v>188</v>
-      </c>
+    <row r="40" spans="1:26" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A40" s="14"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="15"/>
       <c r="D40" s="14"/>
       <c r="E40" s="14"/>
       <c r="F40" s="14"/>
@@ -6165,10 +6373,16 @@
       <c r="Y40" s="13"/>
       <c r="Z40" s="13"/>
     </row>
-    <row r="41" spans="1:26" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A41" s="14"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="15"/>
+    <row r="41" spans="1:26" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="A41" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>188</v>
+      </c>
       <c r="D41" s="14"/>
       <c r="E41" s="14"/>
       <c r="F41" s="14"/>
@@ -33101,408 +33315,436 @@
       <c r="Y1002" s="13"/>
       <c r="Z1002" s="13"/>
     </row>
+    <row r="1003" spans="1:26" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A1003" s="14"/>
+      <c r="B1003" s="14"/>
+      <c r="C1003" s="15"/>
+      <c r="D1003" s="14"/>
+      <c r="E1003" s="14"/>
+      <c r="F1003" s="14"/>
+      <c r="G1003" s="14"/>
+      <c r="H1003" s="17"/>
+      <c r="I1003" s="14"/>
+      <c r="J1003" s="14"/>
+      <c r="K1003" s="14"/>
+      <c r="L1003" s="14"/>
+      <c r="M1003" s="14"/>
+      <c r="N1003" s="14"/>
+      <c r="O1003" s="14"/>
+      <c r="P1003" s="14"/>
+      <c r="Q1003" s="14"/>
+      <c r="R1003" s="14"/>
+      <c r="S1003" s="14"/>
+      <c r="T1003" s="14"/>
+      <c r="U1003" s="14"/>
+      <c r="V1003" s="14"/>
+      <c r="W1003" s="19"/>
+      <c r="X1003" s="13"/>
+      <c r="Y1003" s="13"/>
+      <c r="Z1003" s="13"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="F1:F35 I1:I35 B1:C35 B38:C1002 F38:F1002 I38:I1002">
+  <conditionalFormatting sqref="F1:F35 I1:I35 B1:C35 B39:C1003 F39:F1003 I39:I1003">
     <cfRule type="expression" dxfId="178" priority="1" stopIfTrue="1">
       <formula>$A1="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1:I35 O1:O35 B1:C35 B38:C1002 O38:O1002 I38:I1002">
+  <conditionalFormatting sqref="I1:I35 O1:O35 B1:C35 B39:C1003 O39:O1003 I39:I1003">
     <cfRule type="expression" dxfId="177" priority="2" stopIfTrue="1">
       <formula>$A1="begin repeat"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F35 B1:D35 B38:D1002 F38:F1002">
+  <conditionalFormatting sqref="F1:F35 B1:D35 B39:D1003 F39:F1003">
     <cfRule type="expression" dxfId="176" priority="3" stopIfTrue="1">
       <formula>$A1="text"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1:H35 B1:D35 B38:D1002 G38:H1002">
+  <conditionalFormatting sqref="G1:H35 B1:D35 B39:D1003 G39:H1003">
     <cfRule type="expression" dxfId="175" priority="4" stopIfTrue="1">
       <formula>$A1="integer"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1:H35 B1:D35 B38:D1002 G38:H1002">
+  <conditionalFormatting sqref="G1:H35 B1:D35 B39:D1003 G39:H1003">
     <cfRule type="expression" dxfId="174" priority="5" stopIfTrue="1">
       <formula>$A1="decimal"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F35 B1:C35 B38:C1002 F38:F1002">
+  <conditionalFormatting sqref="F1:F35 B1:C35 B39:C1003 F39:F1003">
     <cfRule type="expression" dxfId="173" priority="6" stopIfTrue="1">
       <formula>OR(AND(LEFT($A1, 16)="select_multiple ", LEN($A1)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A1, 17)))), AND(LEFT($A1, 11)="select_one ", LEN($A1)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A1, 12)))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F35 B1:B35 B38:B1002 F38:F1002">
+  <conditionalFormatting sqref="F1:F35 B1:B35 B39:B1003 F39:F1003">
     <cfRule type="expression" dxfId="172" priority="7" stopIfTrue="1">
       <formula>OR($A1="audio audit", $A1="text audit", $A1="speed violations count", $A1="speed violations list", $A1="speed violations audit")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:C35 B38:C1002">
+  <conditionalFormatting sqref="B1:C35 B39:C1003">
     <cfRule type="expression" dxfId="171" priority="8" stopIfTrue="1">
       <formula>$A1="note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:C35 B38:C1002">
+  <conditionalFormatting sqref="B1:C35 B39:C1003">
     <cfRule type="expression" dxfId="170" priority="9" stopIfTrue="1">
       <formula>$A1="barcode"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:C35 B38:C1002">
+  <conditionalFormatting sqref="B1:C35 B39:C1003">
     <cfRule type="expression" dxfId="169" priority="10" stopIfTrue="1">
       <formula>OR($A1="geopoint", $A1="geoshape", $A1="geotrace")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B35 N1:N35 B38:B1002 N38:N1002">
+  <conditionalFormatting sqref="B1:B35 N1:N35 B39:B1003 N39:N1003">
     <cfRule type="expression" dxfId="168" priority="11" stopIfTrue="1">
       <formula>OR($A1="calculate", $A1="calculate_here")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F35 B1:C35 B38:C1002 F38:F1002">
+  <conditionalFormatting sqref="F1:F35 B1:C35 B39:C1003 F39:F1003">
     <cfRule type="expression" dxfId="167" priority="12" stopIfTrue="1">
       <formula>OR($A1="date", $A1="datetime")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F35 B1:C35 B38:C1002 F38:F1002">
+  <conditionalFormatting sqref="F1:F35 B1:C35 B39:C1003 F39:F1003">
     <cfRule type="expression" dxfId="166" priority="13" stopIfTrue="1">
       <formula>$A1="image"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:C35 B38:C1002">
+  <conditionalFormatting sqref="B1:C35 B39:C1003">
     <cfRule type="expression" dxfId="165" priority="14" stopIfTrue="1">
       <formula>OR($A1="audio", $A1="video")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:V35 A38:V1002">
+  <conditionalFormatting sqref="A1:V35 A39:V1003">
     <cfRule type="expression" dxfId="164" priority="15" stopIfTrue="1">
       <formula>OR($A1="audio", $A1="video")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:V35 A38:V1002">
+  <conditionalFormatting sqref="A1:V35 A39:V1003">
     <cfRule type="expression" dxfId="163" priority="16" stopIfTrue="1">
       <formula>$A1="image"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:V35 A38:V1002">
+  <conditionalFormatting sqref="A1:V35 A39:V1003">
     <cfRule type="expression" dxfId="162" priority="17" stopIfTrue="1">
       <formula>OR($A1="date", $A1="datetime")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:V35 A38:V1002">
+  <conditionalFormatting sqref="A1:V35 A39:V1003">
     <cfRule type="expression" dxfId="161" priority="18" stopIfTrue="1">
       <formula>OR($A1="calculate", $A1="calculate_here")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:V35 A38:V1002">
+  <conditionalFormatting sqref="A1:V35 A39:V1003">
     <cfRule type="expression" dxfId="160" priority="19" stopIfTrue="1">
       <formula>$A1="note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:V35 A38:V1002">
+  <conditionalFormatting sqref="A1:V35 A39:V1003">
     <cfRule type="expression" dxfId="159" priority="20" stopIfTrue="1">
       <formula>$A1="barcode"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:V35 A38:V1002">
+  <conditionalFormatting sqref="A1:V35 A39:V1003">
     <cfRule type="expression" dxfId="158" priority="21" stopIfTrue="1">
       <formula>OR($A1="geopoint", $A1="geoshape", $A1="geotrace")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:V35 A38:V1002">
+  <conditionalFormatting sqref="A1:V35 A39:V1003">
     <cfRule type="expression" dxfId="157" priority="22" stopIfTrue="1">
       <formula>OR($A1="audio audit", $A1="text audit", $A1="speed violations count", $A1="speed violations list", $A1="speed violations audit")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:V35 A38:V1002">
+  <conditionalFormatting sqref="A1:V35 A39:V1003">
     <cfRule type="expression" dxfId="156" priority="23" stopIfTrue="1">
       <formula>OR($A1="username", $A1="phonenumber", $A1="start", $A1="end", $A1="deviceid", $A1="subscriberid", $A1="simserial", $A1="caseid")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:V35 A38:V1002">
+  <conditionalFormatting sqref="A1:V35 A39:V1003">
     <cfRule type="expression" dxfId="155" priority="24" stopIfTrue="1">
       <formula>OR(AND(LEFT($A1, 16)="select_multiple ", LEN($A1)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A1, 17)))), AND(LEFT($A1, 11)="select_one ", LEN($A1)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A1, 12)))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:V35 A38:V1002">
+  <conditionalFormatting sqref="A1:V35 A39:V1003">
     <cfRule type="expression" dxfId="154" priority="25" stopIfTrue="1">
       <formula>$A1="decimal"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:V35 A38:V1002">
+  <conditionalFormatting sqref="A1:V35 A39:V1003">
     <cfRule type="expression" dxfId="153" priority="26" stopIfTrue="1">
       <formula>$A1="integer"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:V35 A38:V1002">
+  <conditionalFormatting sqref="A1:V35 A39:V1003">
     <cfRule type="expression" dxfId="152" priority="27" stopIfTrue="1">
       <formula>$A1="text"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:V35 A38:V1002">
+  <conditionalFormatting sqref="A1:V35 A39:V1003">
     <cfRule type="expression" dxfId="151" priority="28" stopIfTrue="1">
       <formula>$A1="end repeat"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:V35 A38:V1002">
+  <conditionalFormatting sqref="A1:V35 A39:V1003">
     <cfRule type="expression" dxfId="150" priority="29" stopIfTrue="1">
       <formula>$A1="begin repeat"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:V35 A38:V1002">
+  <conditionalFormatting sqref="A1:V35 A39:V1003">
     <cfRule type="expression" dxfId="149" priority="30" stopIfTrue="1">
       <formula>$A1="end group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:V35 A38:V1002">
+  <conditionalFormatting sqref="A1:V35 A39:V1003">
     <cfRule type="expression" dxfId="148" priority="31" stopIfTrue="1">
       <formula>$A1="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B36:C37 F36:F37">
+  <conditionalFormatting sqref="B36:C38 F36:F38">
     <cfRule type="expression" dxfId="147" priority="32" stopIfTrue="1">
       <formula>$A36="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B36:C37 O36:O37">
+  <conditionalFormatting sqref="B36:C38 O36:O38">
     <cfRule type="expression" dxfId="146" priority="33" stopIfTrue="1">
       <formula>$A36="begin repeat"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B36:D37 F36:F37">
+  <conditionalFormatting sqref="B36:D38 F36:F38">
     <cfRule type="expression" dxfId="145" priority="34" stopIfTrue="1">
       <formula>$A36="text"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B36:D37 G36:H37">
+  <conditionalFormatting sqref="B36:D38 G36:H38">
     <cfRule type="expression" dxfId="144" priority="35" stopIfTrue="1">
       <formula>$A36="integer"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B36:D37 G36:H37">
+  <conditionalFormatting sqref="B36:D38 G36:H38">
     <cfRule type="expression" dxfId="143" priority="36" stopIfTrue="1">
       <formula>$A36="decimal"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B36:C37 F36:F37">
+  <conditionalFormatting sqref="B36:C38 F36:F38">
     <cfRule type="expression" dxfId="142" priority="37" stopIfTrue="1">
       <formula>OR(AND(LEFT($A36, 16)="select_multiple ", LEN($A36)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A36, 17)))), AND(LEFT($A36, 11)="select_one ", LEN($A36)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A36, 12)))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B36:B37 F36:F37">
+  <conditionalFormatting sqref="B36:B38 F36:F38">
     <cfRule type="expression" dxfId="141" priority="38" stopIfTrue="1">
       <formula>OR($A36="audio audit", $A36="text audit", $A36="speed violations count", $A36="speed violations list", $A36="speed violations audit")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B36:C37">
+  <conditionalFormatting sqref="B36:C38">
     <cfRule type="expression" dxfId="140" priority="39" stopIfTrue="1">
       <formula>$A36="note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B36:C37">
+  <conditionalFormatting sqref="B36:C38">
     <cfRule type="expression" dxfId="139" priority="40" stopIfTrue="1">
       <formula>$A36="barcode"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B36:C37">
+  <conditionalFormatting sqref="B36:C38">
     <cfRule type="expression" dxfId="138" priority="41" stopIfTrue="1">
       <formula>OR($A36="geopoint", $A36="geoshape", $A36="geotrace")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N36:N37 B36:B37">
+  <conditionalFormatting sqref="N36:N38 B36:B38">
     <cfRule type="expression" dxfId="137" priority="42" stopIfTrue="1">
       <formula>OR($A36="calculate", $A36="calculate_here")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B36:C37 F36:F37">
+  <conditionalFormatting sqref="B36:C38 F36:F38">
     <cfRule type="expression" dxfId="136" priority="43" stopIfTrue="1">
       <formula>OR($A36="date", $A36="datetime")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B36:C37 F36:F37">
+  <conditionalFormatting sqref="B36:C38 F36:F38">
     <cfRule type="expression" dxfId="135" priority="44" stopIfTrue="1">
       <formula>$A36="image"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B36:C37">
+  <conditionalFormatting sqref="B36:C38">
     <cfRule type="expression" dxfId="134" priority="45" stopIfTrue="1">
       <formula>OR($A36="audio", $A36="video")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A36:H37 J36:V37">
+  <conditionalFormatting sqref="J36:V38 A36:H38">
     <cfRule type="expression" dxfId="133" priority="46" stopIfTrue="1">
       <formula>OR($A36="audio", $A36="video")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A36:H37 J36:V37">
+  <conditionalFormatting sqref="J36:V38 A36:H38">
     <cfRule type="expression" dxfId="132" priority="47" stopIfTrue="1">
       <formula>$A36="image"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A36:H37 J36:V37">
+  <conditionalFormatting sqref="J36:V38 A36:H38">
     <cfRule type="expression" dxfId="131" priority="48" stopIfTrue="1">
       <formula>OR($A36="date", $A36="datetime")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A36:H37 J36:V37">
+  <conditionalFormatting sqref="J36:V38 A36:H38">
     <cfRule type="expression" dxfId="130" priority="49" stopIfTrue="1">
       <formula>OR($A36="calculate", $A36="calculate_here")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A36:H37 J36:V37">
+  <conditionalFormatting sqref="J36:V38 A36:H38">
     <cfRule type="expression" dxfId="129" priority="50" stopIfTrue="1">
       <formula>$A36="note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A36:H37 J36:V37">
+  <conditionalFormatting sqref="J36:V38 A36:H38">
     <cfRule type="expression" dxfId="128" priority="51" stopIfTrue="1">
       <formula>$A36="barcode"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A36:H37 J36:V37">
+  <conditionalFormatting sqref="J36:V38 A36:H38">
     <cfRule type="expression" dxfId="127" priority="52" stopIfTrue="1">
       <formula>OR($A36="geopoint", $A36="geoshape", $A36="geotrace")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A36:H37 J36:V37">
+  <conditionalFormatting sqref="J36:V38 A36:H38">
     <cfRule type="expression" dxfId="126" priority="53" stopIfTrue="1">
       <formula>OR($A36="audio audit", $A36="text audit", $A36="speed violations count", $A36="speed violations list", $A36="speed violations audit")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A36:H37 J36:V37">
+  <conditionalFormatting sqref="J36:V38 A36:H38">
     <cfRule type="expression" dxfId="125" priority="54" stopIfTrue="1">
       <formula>OR($A36="username", $A36="phonenumber", $A36="start", $A36="end", $A36="deviceid", $A36="subscriberid", $A36="simserial", $A36="caseid")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A36:H37 J36:V37">
+  <conditionalFormatting sqref="J36:V38 A36:H38">
     <cfRule type="expression" dxfId="124" priority="55" stopIfTrue="1">
       <formula>OR(AND(LEFT($A36, 16)="select_multiple ", LEN($A36)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A36, 17)))), AND(LEFT($A36, 11)="select_one ", LEN($A36)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A36, 12)))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A36:H37 J36:V37">
+  <conditionalFormatting sqref="J36:V38 A36:H38">
     <cfRule type="expression" dxfId="123" priority="56" stopIfTrue="1">
       <formula>$A36="decimal"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A36:H37 J36:V37">
+  <conditionalFormatting sqref="J36:V38 A36:H38">
     <cfRule type="expression" dxfId="122" priority="57" stopIfTrue="1">
       <formula>$A36="integer"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A36:H37 J36:V37">
+  <conditionalFormatting sqref="J36:V38 A36:H38">
     <cfRule type="expression" dxfId="121" priority="58" stopIfTrue="1">
       <formula>$A36="text"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A36:H37 J36:V37">
+  <conditionalFormatting sqref="J36:V38 A36:H38">
     <cfRule type="expression" dxfId="120" priority="59" stopIfTrue="1">
       <formula>$A36="end repeat"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A36:H37 J36:V37">
+  <conditionalFormatting sqref="J36:V38 A36:H38">
     <cfRule type="expression" dxfId="119" priority="60" stopIfTrue="1">
       <formula>$A36="begin repeat"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A36:H37 J36:V37">
+  <conditionalFormatting sqref="J36:V38 A36:H38">
     <cfRule type="expression" dxfId="118" priority="61" stopIfTrue="1">
       <formula>$A36="end group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A36:H37 J36:V37">
+  <conditionalFormatting sqref="J36:V38 A36:H38">
     <cfRule type="expression" dxfId="117" priority="62" stopIfTrue="1">
       <formula>$A36="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I36:I37">
+  <conditionalFormatting sqref="I36:I38">
     <cfRule type="expression" dxfId="116" priority="63" stopIfTrue="1">
       <formula>$A36="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I36:I37">
+  <conditionalFormatting sqref="I36:I38">
     <cfRule type="expression" dxfId="115" priority="64" stopIfTrue="1">
       <formula>$A36="begin repeat"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I36:I37">
+  <conditionalFormatting sqref="I36:I38">
     <cfRule type="expression" dxfId="114" priority="65" stopIfTrue="1">
       <formula>OR($A36="audio", $A36="video")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I36:I37">
+  <conditionalFormatting sqref="I36:I38">
     <cfRule type="expression" dxfId="113" priority="66" stopIfTrue="1">
       <formula>$A36="image"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I36:I37">
+  <conditionalFormatting sqref="I36:I38">
     <cfRule type="expression" dxfId="112" priority="67" stopIfTrue="1">
       <formula>OR($A36="date", $A36="datetime")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I36:I37">
+  <conditionalFormatting sqref="I36:I38">
     <cfRule type="expression" dxfId="111" priority="68" stopIfTrue="1">
       <formula>OR($A36="calculate", $A36="calculate_here")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I36:I37">
+  <conditionalFormatting sqref="I36:I38">
     <cfRule type="expression" dxfId="110" priority="69" stopIfTrue="1">
       <formula>$A36="note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I36:I37">
+  <conditionalFormatting sqref="I36:I38">
     <cfRule type="expression" dxfId="109" priority="70" stopIfTrue="1">
       <formula>$A36="barcode"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I36:I37">
+  <conditionalFormatting sqref="I36:I38">
     <cfRule type="expression" dxfId="108" priority="71" stopIfTrue="1">
       <formula>OR($A36="geopoint", $A36="geoshape", $A36="geotrace")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I36:I37">
+  <conditionalFormatting sqref="I36:I38">
     <cfRule type="expression" dxfId="107" priority="72" stopIfTrue="1">
       <formula>OR($A36="audio audit", $A36="text audit", $A36="speed violations count", $A36="speed violations list", $A36="speed violations audit")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I36:I37">
+  <conditionalFormatting sqref="I36:I38">
     <cfRule type="expression" dxfId="106" priority="73" stopIfTrue="1">
       <formula>OR($A36="username", $A36="phonenumber", $A36="start", $A36="end", $A36="deviceid", $A36="subscriberid", $A36="simserial", $A36="caseid")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I36:I37">
+  <conditionalFormatting sqref="I36:I38">
     <cfRule type="expression" dxfId="105" priority="74" stopIfTrue="1">
       <formula>OR(AND(LEFT($A36, 16)="select_multiple ", LEN($A36)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A36, 17)))), AND(LEFT($A36, 11)="select_one ", LEN($A36)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A36, 12)))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I36:I37">
+  <conditionalFormatting sqref="I36:I38">
     <cfRule type="expression" dxfId="104" priority="75" stopIfTrue="1">
       <formula>$A36="decimal"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I36:I37">
+  <conditionalFormatting sqref="I36:I38">
     <cfRule type="expression" dxfId="103" priority="76" stopIfTrue="1">
       <formula>$A36="integer"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I36:I37">
+  <conditionalFormatting sqref="I36:I38">
     <cfRule type="expression" dxfId="102" priority="77" stopIfTrue="1">
       <formula>$A36="text"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I36:I37">
+  <conditionalFormatting sqref="I36:I38">
     <cfRule type="expression" dxfId="101" priority="78" stopIfTrue="1">
       <formula>$A36="end repeat"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I36:I37">
+  <conditionalFormatting sqref="I36:I38">
     <cfRule type="expression" dxfId="100" priority="79" stopIfTrue="1">
       <formula>$A36="begin repeat"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I36:I37">
+  <conditionalFormatting sqref="I36:I38">
     <cfRule type="expression" dxfId="99" priority="80" stopIfTrue="1">
       <formula>$A36="end group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I36:I37">
+  <conditionalFormatting sqref="I36:I38">
     <cfRule type="expression" dxfId="98" priority="81" stopIfTrue="1">
       <formula>$A36="begin group"</formula>
     </cfRule>
@@ -33519,7 +33761,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12:A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.6"/>
@@ -33919,9 +34161,15 @@
       <c r="Z11" s="13"/>
     </row>
     <row r="12" spans="1:26" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
+      <c r="A12" s="55" t="s">
+        <v>429</v>
+      </c>
+      <c r="B12" s="11">
+        <v>1</v>
+      </c>
+      <c r="C12" s="55" t="s">
+        <v>430</v>
+      </c>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
       <c r="F12" s="13"/>
@@ -33947,9 +34195,15 @@
       <c r="Z12" s="13"/>
     </row>
     <row r="13" spans="1:26" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
+      <c r="A13" s="55" t="s">
+        <v>429</v>
+      </c>
+      <c r="B13" s="11">
+        <v>2</v>
+      </c>
+      <c r="C13" s="55" t="s">
+        <v>431</v>
+      </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
       <c r="F13" s="13"/>
@@ -33975,9 +34229,15 @@
       <c r="Z13" s="13"/>
     </row>
     <row r="14" spans="1:26" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
+      <c r="A14" s="55" t="s">
+        <v>429</v>
+      </c>
+      <c r="B14" s="11">
+        <v>3</v>
+      </c>
+      <c r="C14" s="55" t="s">
+        <v>432</v>
+      </c>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
       <c r="F14" s="13"/>
@@ -61682,7 +61942,7 @@
       </c>
       <c r="C2" s="11" t="str">
         <f ca="1">TEXT(YEAR(NOW())-2000, "00") &amp; TEXT(MONTH(NOW()), "00") &amp; TEXT(DAY(NOW()), "00") &amp; TEXT(HOUR(NOW()), "00") &amp; TEXT(MINUTE(NOW()), "00")</f>
-        <v>2005082031</v>
+        <v>2005111407</v>
       </c>
       <c r="D2" s="16"/>
       <c r="E2" s="18"/>
@@ -61949,7 +62209,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="187.2" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:30" ht="202.8" x14ac:dyDescent="0.6">
       <c r="A6" s="23" t="s">
         <v>67</v>
       </c>
@@ -62411,7 +62671,7 @@
       <c r="AC16" s="26"/>
       <c r="AD16" s="26"/>
     </row>
-    <row r="17" spans="1:30" ht="31.2" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:30" ht="46.8" x14ac:dyDescent="0.6">
       <c r="A17" s="26" t="s">
         <v>135</v>
       </c>
@@ -68957,7 +69217,7 @@
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
     </row>
-    <row r="6" spans="1:26" ht="296.39999999999998" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:26" ht="312" x14ac:dyDescent="0.6">
       <c r="A6" s="23" t="s">
         <v>408</v>
       </c>

--- a/extras/example_form/Sample Form - Display Roster in Table.xlsx
+++ b/extras/example_form/Sample Form - Display Roster in Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mitow\Documents\GitHub\table-list\extras\example_form\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89BD28A5-BBD2-42A5-B400-ED02AC469DD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E58C5225-CAF6-41D6-9433-496C70573A7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -2821,12 +2821,6 @@
     <t>product</t>
   </si>
   <si>
-    <t>1|Dignissim|Natural</t>
-  </si>
-  <si>
-    <t>2|Steelio|Natural</t>
-  </si>
-  <si>
     <t>3|Parallel|Green</t>
   </si>
   <si>
@@ -2849,6 +2843,12 @@
   </si>
   <si>
     <t>This demonstrates pulling data from an external CSV file and combining it with the search function.</t>
+  </si>
+  <si>
+    <t>1|Dignissim|Blue</t>
+  </si>
+  <si>
+    <t>2|Steelio|Gray</t>
   </si>
 </sst>
 </file>
@@ -3267,6 +3267,11 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3290,11 +3295,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4945,7 +4945,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I36" sqref="I36"/>
     </sheetView>
@@ -6199,8 +6199,8 @@
       <c r="C36" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="D36" s="56" t="s">
-        <v>437</v>
+      <c r="D36" s="45" t="s">
+        <v>435</v>
       </c>
       <c r="E36" s="14"/>
       <c r="F36" s="14" t="s">
@@ -6232,21 +6232,21 @@
       <c r="Z36" s="13"/>
     </row>
     <row r="37" spans="1:26" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A37" s="56" t="s">
+      <c r="A37" s="45" t="s">
+        <v>431</v>
+      </c>
+      <c r="B37" s="45" t="s">
+        <v>432</v>
+      </c>
+      <c r="C37" s="46" t="s">
         <v>433</v>
       </c>
-      <c r="B37" s="56" t="s">
-        <v>434</v>
-      </c>
-      <c r="C37" s="57" t="s">
-        <v>435</v>
-      </c>
-      <c r="D37" s="56" t="s">
-        <v>438</v>
+      <c r="D37" s="45" t="s">
+        <v>436</v>
       </c>
       <c r="E37" s="14"/>
-      <c r="F37" s="56" t="s">
-        <v>436</v>
+      <c r="F37" s="45" t="s">
+        <v>434</v>
       </c>
       <c r="G37" s="14"/>
       <c r="H37" s="17"/>
@@ -6279,8 +6279,8 @@
       <c r="C38" s="22" t="s">
         <v>425</v>
       </c>
-      <c r="D38" s="56" t="s">
-        <v>439</v>
+      <c r="D38" s="45" t="s">
+        <v>437</v>
       </c>
       <c r="E38" s="14"/>
       <c r="F38" s="14" t="s">
@@ -33759,9 +33759,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A12" sqref="A12:A14"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.6"/>
@@ -34161,14 +34161,14 @@
       <c r="Z11" s="13"/>
     </row>
     <row r="12" spans="1:26" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A12" s="55" t="s">
+      <c r="A12" s="44" t="s">
         <v>429</v>
       </c>
       <c r="B12" s="11">
         <v>1</v>
       </c>
-      <c r="C12" s="55" t="s">
-        <v>430</v>
+      <c r="C12" s="44" t="s">
+        <v>438</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
@@ -34195,14 +34195,14 @@
       <c r="Z12" s="13"/>
     </row>
     <row r="13" spans="1:26" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A13" s="55" t="s">
+      <c r="A13" s="44" t="s">
         <v>429</v>
       </c>
       <c r="B13" s="11">
         <v>2</v>
       </c>
-      <c r="C13" s="55" t="s">
-        <v>431</v>
+      <c r="C13" s="44" t="s">
+        <v>439</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
@@ -34229,14 +34229,14 @@
       <c r="Z13" s="13"/>
     </row>
     <row r="14" spans="1:26" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A14" s="55" t="s">
+      <c r="A14" s="44" t="s">
         <v>429</v>
       </c>
       <c r="B14" s="11">
         <v>3</v>
       </c>
-      <c r="C14" s="55" t="s">
-        <v>432</v>
+      <c r="C14" s="44" t="s">
+        <v>430</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
@@ -61942,7 +61942,7 @@
       </c>
       <c r="C2" s="11" t="str">
         <f ca="1">TEXT(YEAR(NOW())-2000, "00") &amp; TEXT(MONTH(NOW()), "00") &amp; TEXT(DAY(NOW()), "00") &amp; TEXT(HOUR(NOW()), "00") &amp; TEXT(MINUTE(NOW()), "00")</f>
-        <v>2005111407</v>
+        <v>2005111424</v>
       </c>
       <c r="D2" s="16"/>
       <c r="E2" s="18"/>
@@ -61986,10 +61986,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="45"/>
+      <c r="B1" s="48"/>
       <c r="C1" s="21"/>
       <c r="D1" s="13"/>
       <c r="E1" s="13"/>
@@ -62020,8 +62020,8 @@
       <c r="AD1" s="13"/>
     </row>
     <row r="2" spans="1:30" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A2" s="46"/>
-      <c r="B2" s="47"/>
+      <c r="A2" s="49"/>
+      <c r="B2" s="50"/>
       <c r="C2" s="21"/>
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
@@ -62052,10 +62052,10 @@
       <c r="AD2" s="13"/>
     </row>
     <row r="3" spans="1:30" ht="96.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="49"/>
+      <c r="B3" s="52"/>
       <c r="C3" s="21"/>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
@@ -62334,10 +62334,10 @@
       <c r="AD7" s="13"/>
     </row>
     <row r="8" spans="1:30" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A8" s="50" t="s">
+      <c r="A8" s="53" t="s">
         <v>113</v>
       </c>
-      <c r="B8" s="51"/>
+      <c r="B8" s="54"/>
       <c r="C8" s="25"/>
       <c r="D8" s="19"/>
       <c r="E8" s="19"/>
@@ -64963,10 +64963,10 @@
       <c r="C77" s="21"/>
     </row>
     <row r="78" spans="1:30" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A78" s="52" t="s">
+      <c r="A78" s="55" t="s">
         <v>251</v>
       </c>
-      <c r="B78" s="51"/>
+      <c r="B78" s="54"/>
       <c r="C78" s="30"/>
       <c r="D78" s="31"/>
       <c r="E78" s="14"/>
@@ -68825,10 +68825,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="47" t="s">
         <v>396</v>
       </c>
-      <c r="B1" s="45"/>
+      <c r="B1" s="48"/>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
       <c r="E1" s="13"/>
@@ -68855,8 +68855,8 @@
       <c r="Z1" s="13"/>
     </row>
     <row r="2" spans="1:26" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A2" s="46"/>
-      <c r="B2" s="47"/>
+      <c r="A2" s="49"/>
+      <c r="B2" s="50"/>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
@@ -68883,10 +68883,10 @@
       <c r="Z2" s="13"/>
     </row>
     <row r="3" spans="1:26" ht="99" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="51" t="s">
         <v>397</v>
       </c>
-      <c r="B3" s="49"/>
+      <c r="B3" s="52"/>
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
@@ -69062,10 +69062,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="56" t="s">
         <v>406</v>
       </c>
-      <c r="B1" s="54"/>
+      <c r="B1" s="57"/>
       <c r="C1" s="40"/>
       <c r="D1" s="40"/>
       <c r="E1" s="40"/>
@@ -69092,8 +69092,8 @@
       <c r="Z1" s="13"/>
     </row>
     <row r="2" spans="1:26" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A2" s="46"/>
-      <c r="B2" s="47"/>
+      <c r="A2" s="49"/>
+      <c r="B2" s="50"/>
       <c r="C2" s="40"/>
       <c r="D2" s="40"/>
       <c r="E2" s="40"/>
@@ -69120,10 +69120,10 @@
       <c r="Z2" s="13"/>
     </row>
     <row r="3" spans="1:26" ht="54.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="51" t="s">
         <v>407</v>
       </c>
-      <c r="B3" s="49"/>
+      <c r="B3" s="52"/>
       <c r="C3" s="40"/>
       <c r="D3" s="40"/>
       <c r="E3" s="40"/>
